--- a/public/20220526_SUGGEREIX_Taula_A8.xlsx
+++ b/public/20220526_SUGGEREIX_Taula_A8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ficra.sharepoint.com/sites/SADSUGGEREIX/Materiales de clase/Doc_SAD_actualitzada/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1036" documentId="8_{666691C6-1928-4150-8842-04C9D3230C40}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{6EB3B2E1-3F9B-42BB-AF7C-3728D44B8367}"/>
+  <xr:revisionPtr revIDLastSave="1067" documentId="8_{666691C6-1928-4150-8842-04C9D3230C40}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{1DAE6E2D-66BB-4455-9463-9296132654A6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="599" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="195">
   <si>
     <t>Versions</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>I20</t>
+  </si>
+  <si>
+    <t>nd</t>
   </si>
   <si>
     <t>PFU/100 ml</t>
@@ -2281,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63200D5-CFB8-4A42-B5CB-BB5D2643653A}">
   <dimension ref="A1:AD49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
@@ -2414,8 +2417,11 @@
         <f t="shared" ref="G6:G7" si="0">1-10^-F6</f>
         <v>0.99999994389204294</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I6" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J6" s="5">
         <v>2</v>
@@ -2429,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F7" s="33">
         <f>'A9'!$E$85</f>
@@ -2445,6 +2451,9 @@
         <f t="shared" si="0"/>
         <v>0.99999221910986613</v>
       </c>
+      <c r="H7" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I7" s="8" t="s">
         <v>107</v>
       </c>
@@ -2454,7 +2463,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
@@ -2491,7 +2500,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
@@ -2513,8 +2522,11 @@
         <f t="shared" ref="G9:G10" si="1">1-10^-F9</f>
         <v>0.99999897985532549</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I9" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J9" s="5">
         <v>2</v>
@@ -2522,19 +2534,19 @@
     </row>
     <row r="10" spans="1:16" s="8" customFormat="1">
       <c r="A10" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F10" s="33">
         <f>'A9'!$E$86</f>
@@ -2544,6 +2556,9 @@
         <f t="shared" si="1"/>
         <v>0.99985852927029395</v>
       </c>
+      <c r="H10" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I10" s="8" t="s">
         <v>107</v>
       </c>
@@ -2553,7 +2568,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
@@ -2590,7 +2605,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -2612,8 +2627,11 @@
         <f t="shared" si="2"/>
         <v>0.99999994389204294</v>
       </c>
+      <c r="H12" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I12" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J12" s="5">
         <v>2</v>
@@ -2622,19 +2640,19 @@
     </row>
     <row r="13" spans="1:16" s="8" customFormat="1">
       <c r="A13" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B13" s="8">
         <v>3</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="33">
         <f>'A9'!$E$85</f>
@@ -2644,6 +2662,9 @@
         <f t="shared" si="2"/>
         <v>0.99999221910986613</v>
       </c>
+      <c r="H13" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>107</v>
       </c>
@@ -2654,7 +2675,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -2691,7 +2712,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B15" s="5">
         <v>4</v>
@@ -2713,8 +2734,11 @@
         <f t="shared" si="2"/>
         <v>0.99999962343652959</v>
       </c>
+      <c r="H15" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I15" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J15" s="5">
         <v>2</v>
@@ -2722,19 +2746,19 @@
     </row>
     <row r="16" spans="1:16" s="8" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B16" s="8">
         <v>4</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F16" s="33">
         <f>'A9'!$E$87</f>
@@ -2744,6 +2768,9 @@
         <f t="shared" si="2"/>
         <v>0.99994777926084677</v>
       </c>
+      <c r="H16" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I16" s="8" t="s">
         <v>107</v>
       </c>
@@ -2753,7 +2780,7 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="5">
         <v>5</v>
@@ -2785,12 +2812,12 @@
         <v>2</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5">
         <v>5</v>
@@ -2813,34 +2840,34 @@
         <v>0.99999994389204294</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J18" s="5">
         <v>2</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P18" s="18"/>
     </row>
     <row r="19" spans="1:16" s="8" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" s="8">
         <v>5</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F19" s="33">
         <f>'A9'!$E$85</f>
@@ -2851,7 +2878,7 @@
         <v>0.99999221910986613</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>107</v>
@@ -2860,12 +2887,12 @@
         <v>2</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B20" s="5">
         <v>6</v>
@@ -2897,12 +2924,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" s="5">
         <v>6</v>
@@ -2924,8 +2951,11 @@
         <f t="shared" si="2"/>
         <v>0.99999943892042908</v>
       </c>
+      <c r="H21" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I21" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J21" s="5">
         <v>2</v>
@@ -2933,19 +2963,19 @@
     </row>
     <row r="22" spans="1:16" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" s="8">
         <v>6</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="33">
         <f>'A9'!$K$100</f>
@@ -2955,6 +2985,9 @@
         <f t="shared" si="2"/>
         <v>0.99992219109866165</v>
       </c>
+      <c r="H22" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I22" s="8" t="s">
         <v>107</v>
       </c>
@@ -2964,7 +2997,7 @@
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B23" s="5">
         <v>7</v>
@@ -2996,12 +3029,12 @@
         <v>2</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5">
         <v>7</v>
@@ -3023,8 +3056,11 @@
         <f t="shared" si="2"/>
         <v>0.9999943892042904</v>
       </c>
+      <c r="H24" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I24" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J24" s="5">
         <v>2</v>
@@ -3032,19 +3068,19 @@
     </row>
     <row r="25" spans="1:16" s="8" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B25" s="8">
         <v>7</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F25" s="33">
         <f>'A9'!$K$101</f>
@@ -3054,6 +3090,9 @@
         <f t="shared" si="2"/>
         <v>0.99922191098661683</v>
       </c>
+      <c r="H25" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I25" s="8" t="s">
         <v>107</v>
       </c>
@@ -3063,7 +3102,7 @@
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" s="5">
         <v>8</v>
@@ -3095,13 +3134,13 @@
         <v>2</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B27" s="5">
         <v>8</v>
@@ -3123,8 +3162,11 @@
         <f t="shared" ref="G27:G28" si="3">1-10^-F27</f>
         <v>0.99994389204290424</v>
       </c>
+      <c r="H27" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I27" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J27" s="5">
         <v>2</v>
@@ -3133,19 +3175,19 @@
     </row>
     <row r="28" spans="1:16" s="8" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B28" s="8">
         <v>8</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28" s="33">
         <f>'A9'!$K$102</f>
@@ -3155,6 +3197,9 @@
         <f t="shared" si="3"/>
         <v>0.99221910986616868</v>
       </c>
+      <c r="H28" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I28" s="8" t="s">
         <v>107</v>
       </c>
@@ -3165,7 +3210,7 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B29" s="5">
         <v>9</v>
@@ -3197,13 +3242,13 @@
         <v>2</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B30" s="5">
         <v>9</v>
@@ -3225,8 +3270,11 @@
         <f t="shared" ref="G30:G31" si="4">1-10^-F30</f>
         <v>0.9999995511363432</v>
       </c>
+      <c r="H30" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I30" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J30" s="5">
         <v>2</v>
@@ -3235,19 +3283,19 @@
     </row>
     <row r="31" spans="1:16" s="8" customFormat="1">
       <c r="A31" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B31" s="8">
         <v>9</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F31" s="33">
         <f>'A9'!$E$88</f>
@@ -3257,6 +3305,9 @@
         <f t="shared" si="4"/>
         <v>0.99993775287892939</v>
       </c>
+      <c r="H31" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I31" s="8" t="s">
         <v>107</v>
       </c>
@@ -3267,7 +3318,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B32" s="5">
         <v>10</v>
@@ -3299,12 +3350,12 @@
         <v>2</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B33" s="5">
         <v>10</v>
@@ -3326,8 +3377,11 @@
         <f>1-10^-F33</f>
         <v>0.9999995511363432</v>
       </c>
+      <c r="H33" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I33" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J33" s="5">
         <v>2</v>
@@ -3335,19 +3389,19 @@
     </row>
     <row r="34" spans="1:30" s="8" customFormat="1">
       <c r="A34" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B34" s="8">
         <v>10</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F34" s="33">
         <f>'A9'!$E$88</f>
@@ -3357,6 +3411,9 @@
         <f>1-10^-F34</f>
         <v>0.99993775287892939</v>
       </c>
+      <c r="H34" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I34" s="8" t="s">
         <v>107</v>
       </c>
@@ -3368,7 +3425,7 @@
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B35" s="5">
         <v>11</v>
@@ -3400,12 +3457,12 @@
         <v>2</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" s="5">
         <v>11</v>
@@ -3427,8 +3484,11 @@
         <f t="shared" si="5"/>
         <v>0.99999999998462796</v>
       </c>
+      <c r="H36" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I36" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J36" s="5">
         <v>2</v>
@@ -3437,19 +3497,19 @@
     </row>
     <row r="37" spans="1:30" s="8" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B37" s="8">
         <v>11</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F37" s="33">
         <f>'A9'!$E$89</f>
@@ -3459,6 +3519,9 @@
         <f t="shared" si="5"/>
         <v>0.99999999786824922</v>
       </c>
+      <c r="H37" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I37" s="8" t="s">
         <v>107</v>
       </c>
@@ -3469,7 +3532,7 @@
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B38" s="5">
         <v>12</v>
@@ -3506,7 +3569,7 @@
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B39" s="5">
         <v>12</v>
@@ -3528,8 +3591,11 @@
         <f t="shared" si="5"/>
         <v>0.99999999998462796</v>
       </c>
+      <c r="H39" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I39" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J39" s="5">
         <v>2</v>
@@ -3538,19 +3604,19 @@
     </row>
     <row r="40" spans="1:30" s="8" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B40" s="8">
         <v>12</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F40" s="33">
         <f>'A9'!$E$89</f>
@@ -3560,6 +3626,9 @@
         <f t="shared" si="5"/>
         <v>0.99999999786824922</v>
       </c>
+      <c r="H40" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I40" s="8" t="s">
         <v>107</v>
       </c>
@@ -3570,7 +3639,7 @@
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B41" s="5">
         <v>13</v>
@@ -3592,6 +3661,9 @@
         <f t="shared" si="5"/>
         <v>0.99481390257252322</v>
       </c>
+      <c r="H41" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I41" s="5" t="s">
         <v>107</v>
       </c>
@@ -3599,13 +3671,13 @@
         <v>2</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P41" s="7"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B42" s="5">
         <v>13</v>
@@ -3627,8 +3699,11 @@
         <f t="shared" ref="G42:G43" si="6">1-10^-F42</f>
         <v>0.99994389204290424</v>
       </c>
+      <c r="H42" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I42" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J42" s="5">
         <v>2</v>
@@ -3638,19 +3713,19 @@
     </row>
     <row r="43" spans="1:30" s="8" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B43" s="8">
         <v>13</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F43" s="33">
         <f>'A9'!$K$102</f>
@@ -3660,6 +3735,9 @@
         <f t="shared" si="6"/>
         <v>0.99221910986616868</v>
       </c>
+      <c r="H43" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I43" s="8" t="s">
         <v>107</v>
       </c>
@@ -3670,7 +3748,7 @@
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" s="5">
         <v>14</v>
@@ -3692,6 +3770,9 @@
         <f>1-10^-F44</f>
         <v>0.9999948139025725</v>
       </c>
+      <c r="H44" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I44" s="5" t="s">
         <v>107</v>
       </c>
@@ -3699,7 +3780,7 @@
         <v>2</v>
       </c>
       <c r="K44" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -3720,7 +3801,7 @@
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B45" s="5">
         <v>14</v>
@@ -3742,8 +3823,11 @@
         <f>1-10^-F45</f>
         <v>0.99999994389204294</v>
       </c>
+      <c r="H45" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="I45" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J45" s="5">
         <v>2</v>
@@ -3751,19 +3835,19 @@
     </row>
     <row r="46" spans="1:30" s="8" customFormat="1">
       <c r="A46" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B46" s="8">
         <v>14</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F46" s="33">
         <f>'A9'!$E$85</f>
@@ -3773,6 +3857,9 @@
         <f>1-10^-F46</f>
         <v>0.99999221910986613</v>
       </c>
+      <c r="H46" s="8" t="s">
+        <v>112</v>
+      </c>
       <c r="I46" s="8" t="s">
         <v>107</v>
       </c>
@@ -3782,7 +3869,7 @@
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B47" s="5">
         <v>15</v>
@@ -3814,13 +3901,13 @@
         <v>2</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P47" s="12"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B48" s="5">
         <v>15</v>
@@ -3846,7 +3933,7 @@
         <v>106</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J48" s="5">
         <v>2</v>
@@ -3855,19 +3942,19 @@
     </row>
     <row r="49" spans="1:16" s="8" customFormat="1">
       <c r="A49" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B49" s="8">
         <v>15</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="33">
         <f>'A9'!$E$89</f>
@@ -3911,21 +3998,21 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15">
       <c r="A3" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -3937,16 +4024,16 @@
     </row>
     <row r="4" spans="1:15" ht="15">
       <c r="A4" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4" s="5">
         <v>2000</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="20"/>
@@ -3958,16 +4045,16 @@
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5">
         <v>2700</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="23"/>
@@ -3979,16 +4066,16 @@
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B6" s="5">
         <v>8000</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="25"/>
@@ -4006,10 +4093,10 @@
         <v>7000</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="23"/>
@@ -4021,16 +4108,16 @@
     </row>
     <row r="8" spans="1:15" ht="15">
       <c r="A8" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B8" s="5">
         <v>20000</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="28"/>
@@ -4042,7 +4129,7 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B9" s="5">
         <f>10^7.24</f>
@@ -4052,7 +4139,7 @@
         <v>107</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="28"/>
@@ -4073,19 +4160,19 @@
     </row>
     <row r="11" spans="1:15" ht="15">
       <c r="A11" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>97</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="28"/>
@@ -4097,10 +4184,10 @@
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5">
         <v>100</v>
@@ -4109,7 +4196,7 @@
         <v>107</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="28"/>
@@ -4121,10 +4208,10 @@
     </row>
     <row r="13" spans="1:15" ht="15">
       <c r="A13" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C13" s="5">
         <v>1000</v>
@@ -4133,7 +4220,7 @@
         <v>107</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I13" s="22"/>
       <c r="J13" s="28"/>
@@ -4145,10 +4232,10 @@
     </row>
     <row r="14" spans="1:15" ht="15">
       <c r="A14" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C14" s="5">
         <v>10000</v>
@@ -4157,7 +4244,7 @@
         <v>107</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="28"/>
@@ -4169,10 +4256,10 @@
     </row>
     <row r="15" spans="1:15" ht="15">
       <c r="A15" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C15" s="5">
         <v>500</v>
@@ -4181,7 +4268,7 @@
         <v>107</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="28"/>
@@ -4202,18 +4289,18 @@
     </row>
     <row r="17" spans="1:15" ht="15">
       <c r="A17" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17"/>
@@ -4226,28 +4313,28 @@
     <row r="18" spans="1:15" ht="15">
       <c r="B18" s="1"/>
       <c r="C18" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15">
       <c r="B19" s="1"/>
       <c r="E19" s="5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="15">
       <c r="A20" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="5">
@@ -4264,7 +4351,7 @@
     </row>
     <row r="21" spans="1:15" ht="15">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5">
@@ -4281,7 +4368,7 @@
     </row>
     <row r="22" spans="1:15" ht="15">
       <c r="A22" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="5">
@@ -4298,7 +4385,7 @@
     </row>
     <row r="23" spans="1:15" ht="15">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="5">
@@ -4315,7 +4402,7 @@
     </row>
     <row r="24" spans="1:15" ht="15">
       <c r="A24" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="5">
@@ -4340,7 +4427,7 @@
         <v>91</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -4348,27 +4435,27 @@
         <v>103</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E28" s="5">
         <f>5.9*10^-2</f>
@@ -4377,7 +4464,7 @@
     </row>
     <row r="29" spans="1:15">
       <c r="B29" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C29" s="5">
         <v>0.14499999999999999</v>
@@ -4386,12 +4473,12 @@
         <v>0.253</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="B30" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="5">
         <v>7.58</v>
@@ -4400,15 +4487,15 @@
         <v>0.42599999999999999</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C31" s="5">
         <f>4.6*10^-3</f>
@@ -4425,7 +4512,7 @@
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32" s="5">
         <v>0.3</v>
@@ -4439,10 +4526,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C33" s="5">
         <f>10^-6</f>
@@ -4459,7 +4546,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
@@ -4473,7 +4560,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C35" s="32">
         <f>C33*1/C31*1/C32</f>
@@ -4490,10 +4577,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" s="32">
         <f>C30/C29*C35</f>
@@ -4510,12 +4597,12 @@
     </row>
     <row r="38" spans="1:5" ht="15">
       <c r="A38" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C39" s="32">
         <f>1-(1-C35)^(1/$D$20)</f>
@@ -4532,10 +4619,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C40" s="32">
         <f>C30/C29*C39</f>
@@ -4552,7 +4639,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C41" s="7">
         <f>LOG(B7/(C40/C20))</f>
@@ -4569,12 +4656,12 @@
     </row>
     <row r="43" spans="1:5" ht="15">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C44" s="32">
         <f>1-(1-C35)^(1/$D$21)</f>
@@ -4591,7 +4678,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C45" s="32">
         <f>$C$30/$C$29*C44</f>
@@ -4608,7 +4695,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C46" s="7">
         <f>LOG(B7/(C45/C21))</f>
@@ -4625,12 +4712,12 @@
     </row>
     <row r="48" spans="1:5" ht="15">
       <c r="A48" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C49" s="32">
         <f>1-(1-C35)^(1/D22)</f>
@@ -4647,7 +4734,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C50" s="32">
         <f>C30/C29*C49</f>
@@ -4664,7 +4751,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="7">
         <f>LOG(B7/(C50/C22))</f>
@@ -4681,12 +4768,12 @@
     </row>
     <row r="53" spans="1:22" ht="15">
       <c r="A53" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C54" s="32">
         <f>1-(1-C35)^(1/D23)</f>
@@ -4703,7 +4790,7 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C55" s="32">
         <f>C30/C29*C54</f>
@@ -4720,7 +4807,7 @@
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C56" s="7">
         <f>LOG(B7/(C55/C23))</f>
@@ -4737,7 +4824,7 @@
     </row>
     <row r="58" spans="1:22" ht="15">
       <c r="A58" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -4763,7 +4850,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C59" s="32">
         <f>1-(1-C35)^(1/D24)</f>
@@ -4780,7 +4867,7 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C60" s="32">
         <f>C30/C29*C59</f>
@@ -4797,7 +4884,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" s="7">
         <f>LOG(B7/(C60/C24))</f>
@@ -4817,7 +4904,7 @@
         <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:22">
@@ -4825,45 +4912,45 @@
         <v>103</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E65" s="5">
         <v>0.2</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H65" s="5">
         <v>0.41720000000000002</v>
@@ -4871,7 +4958,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="B66" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" s="5">
         <v>0.14499999999999999</v>
@@ -4880,7 +4967,7 @@
         <v>0.26</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F66" s="5">
         <v>0.04</v>
@@ -4889,12 +4976,12 @@
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="B67" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C67" s="5">
         <v>7.58</v>
@@ -4903,7 +4990,7 @@
         <v>0.42</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F67" s="5">
         <v>5.5E-2</v>
@@ -4912,15 +4999,15 @@
         <v>2E-3</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C68" s="5">
         <v>2.4E-2</v>
@@ -4944,7 +5031,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69" s="5">
         <v>0.3</v>
@@ -4967,10 +5054,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C70" s="5">
         <f>10^-6</f>
@@ -4999,7 +5086,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C71" s="5">
         <v>1</v>
@@ -5022,7 +5109,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C72" s="5">
         <f>C70*1/C68*1/C69</f>
@@ -5051,10 +5138,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C73" s="5">
         <f>C67/C66*C72</f>
@@ -5086,12 +5173,12 @@
     </row>
     <row r="77" spans="1:8" ht="15">
       <c r="A77" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C78" s="32">
         <f>1-(1-C72)^(1/D20)</f>
@@ -5116,10 +5203,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" s="32">
         <f>C67/C66*C78</f>
@@ -5144,7 +5231,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C80" s="7">
         <f>LOG(B7/(C79/C20))</f>
@@ -5199,16 +5286,16 @@
         <v>103</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>109</v>
@@ -5221,7 +5308,7 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="10">
         <f>LOG(B7/(C73/$E$20))</f>
@@ -5255,7 +5342,7 @@
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C86" s="10">
         <f>LOG($B$7/($C$73/E21))</f>
@@ -5289,7 +5376,7 @@
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C87" s="10">
         <f>LOG($B$7/($C$73/E22))</f>
@@ -5323,7 +5410,7 @@
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C88" s="10">
         <f>LOG($B$7/($C$73/E23))</f>
@@ -5357,7 +5444,7 @@
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C89" s="10">
         <f>LOG($B$7/($C$73/E24))</f>
@@ -5386,10 +5473,10 @@
     </row>
     <row r="91" spans="1:19" ht="15">
       <c r="C91" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15">
@@ -5397,18 +5484,18 @@
         <v>103</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:19">
       <c r="A93" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C93" s="5">
         <v>1</v>
@@ -5422,7 +5509,7 @@
     </row>
     <row r="94" spans="1:19">
       <c r="A94" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C94" s="5">
         <v>2</v>
@@ -5436,7 +5523,7 @@
     </row>
     <row r="95" spans="1:19">
       <c r="A95" s="5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C95" s="5">
         <v>3</v>
@@ -5450,16 +5537,16 @@
     </row>
     <row r="97" spans="1:16" ht="15">
       <c r="C97" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P97" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="15">
@@ -5471,15 +5558,15 @@
         <v>91</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P98" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="15">
       <c r="A99" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="19" t="s">
@@ -5490,7 +5577,7 @@
         <v>Adenovirus</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I99" s="19" t="s">
         <v>103</v>
@@ -5500,15 +5587,15 @@
         <v>Adenovirus</v>
       </c>
       <c r="K99" s="19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O99" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100" spans="1:16">
       <c r="A100" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C100" s="5">
         <f>C93</f>
@@ -5541,7 +5628,7 @@
     </row>
     <row r="101" spans="1:16">
       <c r="A101" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C101" s="5">
         <f>C94</f>
@@ -5574,7 +5661,7 @@
     </row>
     <row r="102" spans="1:16">
       <c r="A102" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C102" s="5">
         <f>C95</f>
@@ -5607,25 +5694,25 @@
     </row>
     <row r="104" spans="1:16" ht="15">
       <c r="A104" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O104" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P104" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:16">
       <c r="A105" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O105" s="10">
         <f>LOG(B9/C15)</f>
         <v>4.5410299956639824</v>
       </c>
       <c r="P105" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5637,8 +5724,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="92b3409ea0638059f9fd8d7ade9df832">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0b08d302f03e228be09f4a35f7dd0cbe" ns2:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010042169B78D842A848BE799D251A5B2C6A" ma:contentTypeVersion="7" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="625099e38fc716cc4bb30b36cfa7c837">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="758674b2-73ae-44f0-9f19-d4ad379aa2ea" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c97fa59194b5c482d1d5e2dd6e3e6b4b" ns2:_="">
     <xsd:import namespace="758674b2-73ae-44f0-9f19-d4ad379aa2ea"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -5710,8 +5812,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -5800,23 +5902,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6470ECDA-CB67-48DF-8284-74C6DB5E6720}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{262BBFCB-C533-4029-AEA5-B74A922FF066}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5824,5 +5911,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{262BBFCB-C533-4029-AEA5-B74A922FF066}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12678917-5513-4197-A6DE-17900AEDA705}"/>
 </file>